--- a/Base/Benchmark AnyLogic API.xlsx
+++ b/Base/Benchmark AnyLogic API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50074E-DF55-485C-92A1-6F65D870ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4CE73-402B-498D-B530-8AE2D41836F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
+    <workbookView xWindow="5508" yWindow="3708" windowWidth="23040" windowHeight="12216" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>responstijd API (s)</t>
   </si>
@@ -48,6 +47,9 @@
   </si>
   <si>
     <t>totaal agents</t>
+  </si>
+  <si>
+    <t>responsetijd private cloud</t>
   </si>
 </sst>
 </file>
@@ -496,6 +498,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0F7A-4F74-A40A-9A754F1C10ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>responsetijd private cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F73-4C00-811F-8570DFE1B4C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,11 +855,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -1406,8 +1501,8 @@
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1734,22 +1829,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392E5EB-2CAF-4A57-B5FB-21CFD6EA24FB}">
-  <dimension ref="C2:F19"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1762,8 +1857,11 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>28</v>
       </c>
@@ -1777,8 +1875,11 @@
       <c r="F3" s="4">
         <v>0.75</v>
       </c>
+      <c r="G3">
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>300</v>
       </c>
@@ -1792,8 +1893,11 @@
       <c r="F4" s="4">
         <v>1.78</v>
       </c>
+      <c r="G4">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -1807,8 +1911,11 @@
       <c r="F5">
         <v>2.5</v>
       </c>
+      <c r="G5">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>

--- a/Base/Benchmark AnyLogic API.xlsx
+++ b/Base/Benchmark AnyLogic API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4CE73-402B-498D-B530-8AE2D41836F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03900B9-5EAC-48CF-8950-28BA5762E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="3708" windowWidth="23040" windowHeight="12216" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>responstijd API (s)</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>responsetijd private cloud</t>
+  </si>
+  <si>
+    <t>privateCloud 16/9</t>
+  </si>
+  <si>
+    <t>t=1h</t>
+  </si>
+  <si>
+    <t>t=0.25h</t>
+  </si>
+  <si>
+    <t>Cloud parallel</t>
+  </si>
+  <si>
+    <t>private cloud cached</t>
+  </si>
+  <si>
+    <t>parallel default energyassets</t>
   </si>
 </sst>
 </file>
@@ -551,6 +569,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$5</c:f>
@@ -591,6 +624,185 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F73-4C00-811F-8570DFE1B4C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>privateCloud 16/9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E3C-40CD-ABA8-F6C5BE0ED12D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cloud parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9E3C-40CD-ABA8-F6C5BE0ED12D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -855,11 +1067,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="4"/>
+        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -1495,16 +1707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1829,22 +2041,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392E5EB-2CAF-4A57-B5FB-21CFD6EA24FB}">
-  <dimension ref="C2:G19"/>
+  <dimension ref="C1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1860,8 +2080,20 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>28</v>
       </c>
@@ -1878,8 +2110,23 @@
       <c r="G3">
         <v>5.4</v>
       </c>
+      <c r="H3">
+        <v>6.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="J3">
+        <v>11.8</v>
+      </c>
+      <c r="K3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L3">
+        <v>5.875</v>
+      </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>300</v>
       </c>
@@ -1896,8 +2143,23 @@
       <c r="G4">
         <v>6.2</v>
       </c>
+      <c r="H4">
+        <v>6.7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="J4">
+        <v>11.9</v>
+      </c>
+      <c r="K4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L4">
+        <v>6.85</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -1914,8 +2176,26 @@
       <c r="G5">
         <v>12.8</v>
       </c>
+      <c r="H5">
+        <v>12.9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23.64</v>
+      </c>
+      <c r="J5">
+        <v>18.3</v>
+      </c>
+      <c r="K5">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L5">
+        <v>7.3650000000000002</v>
+      </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>

--- a/Base/Benchmark AnyLogic API.xlsx
+++ b/Base/Benchmark AnyLogic API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03900B9-5EAC-48CF-8950-28BA5762E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB41174-A2BD-41E6-86B8-FBF0E33ACF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
   </bookViews>
@@ -785,13 +785,13 @@
             <c:numRef>
               <c:f>Sheet1!$J$3:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.8</c:v>
+                  <c:v>4.5629999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.9</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.3</c:v>
@@ -2044,7 +2044,7 @@
   <dimension ref="C1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2116,11 +2116,11 @@
       <c r="I3" s="4">
         <v>6.05</v>
       </c>
-      <c r="J3">
-        <v>11.8</v>
-      </c>
-      <c r="K3">
-        <v>0.20300000000000001</v>
+      <c r="J3" s="4">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.155</v>
       </c>
       <c r="L3">
         <v>5.875</v>
@@ -2149,11 +2149,11 @@
       <c r="I4" s="4">
         <v>11.9</v>
       </c>
-      <c r="J4">
-        <v>11.9</v>
-      </c>
-      <c r="K4">
-        <v>0.34300000000000003</v>
+      <c r="J4" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.35</v>
       </c>
       <c r="L4">
         <v>6.85</v>
@@ -2182,10 +2182,10 @@
       <c r="I5" s="4">
         <v>23.64</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>18.3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.68600000000000005</v>
       </c>
       <c r="L5">

--- a/Base/Benchmark AnyLogic API.xlsx
+++ b/Base/Benchmark AnyLogic API.xlsx
@@ -2,23 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB41174-A2BD-41E6-86B8-FBF0E33ACF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C58309-B5CF-4177-948D-8ED5F32E8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E845474-1578-4D90-89CE-AD8BAB5BC2FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_BenchmarkAnyLogicAPI.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_BenchmarkAnyLogicAPI.xlsxTable21" hidden="1">Table2[]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="121" r:id="rId3"/>
+    <pivotCache cacheId="124" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table1" name="Table1" connection="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table1"/>
+          <x15:modelTable id="Table2" name="Table2" connection="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table2"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,8 +51,40 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{E6DB517D-A21B-40A6-B200-41AA0F2ABE3C}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{01BEAD54-F660-4627-8C32-B9116152382D}" name="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_BenchmarkAnyLogicAPI.xlsxTable11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{3ACE7D1B-CF22-43B7-8E5F-060CB571578B}" name="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table2" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table2" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_BenchmarkAnyLogicAPI.xlsxTable21"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>responstijd API (s)</t>
   </si>
@@ -68,6 +117,57 @@
   </si>
   <si>
     <t>parallel default energyassets</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Parallelisatie</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>uit</t>
+  </si>
+  <si>
+    <t>aan</t>
+  </si>
+  <si>
+    <t>Aantal gridconnections</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>tijdstap (u)</t>
+  </si>
+  <si>
+    <t>API tijd uncached (s)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>cached</t>
+  </si>
+  <si>
+    <t>Average of API tijd uncached (s)</t>
+  </si>
+  <si>
+    <t>API respons cached</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Average of API respons cached</t>
   </si>
 </sst>
 </file>
@@ -112,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -122,11 +222,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,6 +274,4419 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Responstijd</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> AnyLogic API (huidige model)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>responstijd API (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5C9-4842-A91F-D4AFDA5D176F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>responstijd API cached (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C5C9-4842-A91F-D4AFDA5D176F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>responsetijd private cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5C9-4842-A91F-D4AFDA5D176F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>privateCloud 16/9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C5C9-4842-A91F-D4AFDA5D176F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cloud parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C5C9-4842-A91F-D4AFDA5D176F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="804756280"/>
+        <c:axId val="804754640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="804756280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Gridconnections</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804754640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="804754640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804756280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Benchmark AnyLogic API.xlsx]Sheet1 (2)!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$27:$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$L$29:$L$37</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$29:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.545999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F9B-4875-988F-1EF6B36B9344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$27:$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$L$29:$L$37</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$29:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.473000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.975999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F9B-4875-988F-1EF6B36B9344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="684567688"/>
+        <c:axId val="684569984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="684567688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>aantal Gridconnections</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684569984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684569984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>seconden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684567688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Benchmark AnyLogic API.xlsx]Sheet1 (2)!PivotTable1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$M$27:$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$L$29:$L$37</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$M$29:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.848000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.545999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C95-440A-8C0A-0DE8CC30EA3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$N$27:$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Sheet1 (2)'!$L$29:$L$37</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>aan</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>uit</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$N$29:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.473000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.975999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C95-440A-8C0A-0DE8CC30EA3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="106645232"/>
+        <c:axId val="106648184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106645232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106648184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106648184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106645232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Benchmark AnyLogic API.xlsx]Sheet1 (2)!PivotTable3</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$T$27:$T$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$S$29:$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Private</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Public</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$T$29:$T$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1080000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41B4-4801-8A01-5B448A0982F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$U$27:$U$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$S$29:$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Private</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Public</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$U$29:$U$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0369999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-41B4-4801-8A01-5B448A0982F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$V$27:$V$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$S$29:$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Private</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Public</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$V$29:$V$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9379999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41B4-4801-8A01-5B448A0982F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="800815312"/>
+        <c:axId val="800813344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="800815312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="800813344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="800813344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>seconden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="800815312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1187,6 +5734,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1703,7 +6410,2196 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30E1ABE-08F8-4483-8806-224C15FAD040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C9E41A-C92F-5FB1-F5CA-32F68C22113B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8216D1-BE59-6A7E-85AA-BAEA6BD324CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>112394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D9EB80-867B-EBA0-9738-E9DBD1CBDCC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1742,6 +8638,817 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jorrit van den Houten" refreshedDate="44825.610478472219" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{682A7533-2097-4F87-B1C1-235182F83A39}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table2].[Cloud].[Cloud]" caption="Cloud" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="2">
+        <s v="Private"/>
+        <s v="Public"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Table2].[Aantal gridconnections].[Aantal gridconnections]" caption="Aantal gridconnections" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="1000" count="3">
+        <n v="27"/>
+        <n v="300"/>
+        <n v="1000"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Table2].[Aantal gridconnections].&amp;[27]"/>
+            <x15:cachedUniqueName index="1" name="[Table2].[Aantal gridconnections].&amp;[300]"/>
+            <x15:cachedUniqueName index="2" name="[Table2].[Aantal gridconnections].&amp;[1000]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Measures].[Average of API respons cached]" caption="Average of API respons cached" numFmtId="0" hierarchy="18" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[Table1].[Cloud]" caption="Cloud" attribute="1" defaultMemberUniqueName="[Table1].[Cloud].[All]" allUniqueName="[Table1].[Cloud].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Aantal gridconnections]" caption="Aantal gridconnections" attribute="1" defaultMemberUniqueName="[Table1].[Aantal gridconnections].[All]" allUniqueName="[Table1].[Aantal gridconnections].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Parallelisatie]" caption="Parallelisatie" attribute="1" defaultMemberUniqueName="[Table1].[Parallelisatie].[All]" allUniqueName="[Table1].[Parallelisatie].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[API tijd uncached (s)]" caption="API tijd uncached (s)" attribute="1" defaultMemberUniqueName="[Table1].[API tijd uncached (s)].[All]" allUniqueName="[Table1].[API tijd uncached (s)].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[tijdstap (u)]" caption="tijdstap (u)" attribute="1" defaultMemberUniqueName="[Table1].[tijdstap (u)].[All]" allUniqueName="[Table1].[tijdstap (u)].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[cached]" caption="cached" attribute="1" defaultMemberUniqueName="[Table1].[cached].[All]" allUniqueName="[Table1].[cached].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[Cloud]" caption="Cloud" attribute="1" defaultMemberUniqueName="[Table2].[Cloud].[All]" allUniqueName="[Table2].[Cloud].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table2].[Aantal gridconnections]" caption="Aantal gridconnections" attribute="1" defaultMemberUniqueName="[Table2].[Aantal gridconnections].[All]" allUniqueName="[Table2].[Aantal gridconnections].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table2].[API respons cached]" caption="API respons cached" attribute="1" defaultMemberUniqueName="[Table2].[API respons cached].[All]" allUniqueName="[Table2].[API respons cached].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[Column1]" caption="Column1" attribute="1" defaultMemberUniqueName="[Table2].[Column1].[All]" allUniqueName="[Table2].[Column1].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table2]" caption="__XL_Count Table2" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Aantal gridconnections]" caption="Sum of Aantal gridconnections" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of API tijd uncached (s)]" caption="Sum of API tijd uncached (s)" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of API tijd uncached (s)]" caption="Average of API tijd uncached (s)" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Aantal gridconnections 2]" caption="Sum of Aantal gridconnections 2" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of API respons cached]" caption="Sum of API respons cached" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of API respons cached]" caption="Average of API respons cached" measure="1" displayFolder="" measureGroup="Table2" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+    <dimension name="Table2" uniqueName="[Table2]" caption="Table2"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Table1" caption="Table1"/>
+    <measureGroup name="Table2" caption="Table2"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jorrit van den Houten" refreshedDate="44825.610526620374" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{A49E4FB6-CE73-4952-B9E8-EC1A96457F81}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Table1].[Cloud].[Cloud]" caption="Cloud" numFmtId="0" level="1">
+      <sharedItems count="2">
+        <s v="Private"/>
+        <s v="Public"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Table1].[Parallelisatie].[Parallelisatie]" caption="Parallelisatie" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="2">
+        <s v="aan"/>
+        <s v="uit"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Table1].[Aantal gridconnections].[Aantal gridconnections]" caption="Aantal gridconnections" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="1000" count="3">
+        <n v="27"/>
+        <n v="300"/>
+        <n v="1000"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Table1].[Aantal gridconnections].&amp;[27]"/>
+            <x15:cachedUniqueName index="1" name="[Table1].[Aantal gridconnections].&amp;[300]"/>
+            <x15:cachedUniqueName index="2" name="[Table1].[Aantal gridconnections].&amp;[1000]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Measures].[Average of API tijd uncached (s)]" caption="Average of API tijd uncached (s)" numFmtId="0" hierarchy="15" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[Table1].[Cloud]" caption="Cloud" attribute="1" defaultMemberUniqueName="[Table1].[Cloud].[All]" allUniqueName="[Table1].[Cloud].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[Aantal gridconnections]" caption="Aantal gridconnections" attribute="1" defaultMemberUniqueName="[Table1].[Aantal gridconnections].[All]" allUniqueName="[Table1].[Aantal gridconnections].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[Parallelisatie]" caption="Parallelisatie" attribute="1" defaultMemberUniqueName="[Table1].[Parallelisatie].[All]" allUniqueName="[Table1].[Parallelisatie].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[API tijd uncached (s)]" caption="API tijd uncached (s)" attribute="1" defaultMemberUniqueName="[Table1].[API tijd uncached (s)].[All]" allUniqueName="[Table1].[API tijd uncached (s)].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[tijdstap (u)]" caption="tijdstap (u)" attribute="1" defaultMemberUniqueName="[Table1].[tijdstap (u)].[All]" allUniqueName="[Table1].[tijdstap (u)].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[cached]" caption="cached" attribute="1" defaultMemberUniqueName="[Table1].[cached].[All]" allUniqueName="[Table1].[cached].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[Cloud]" caption="Cloud" attribute="1" defaultMemberUniqueName="[Table2].[Cloud].[All]" allUniqueName="[Table2].[Cloud].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[Aantal gridconnections]" caption="Aantal gridconnections" attribute="1" defaultMemberUniqueName="[Table2].[Aantal gridconnections].[All]" allUniqueName="[Table2].[Aantal gridconnections].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[API respons cached]" caption="API respons cached" attribute="1" defaultMemberUniqueName="[Table2].[API respons cached].[All]" allUniqueName="[Table2].[API respons cached].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[Column1]" caption="Column1" attribute="1" defaultMemberUniqueName="[Table2].[Column1].[All]" allUniqueName="[Table2].[Column1].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table2]" caption="__XL_Count Table2" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Aantal gridconnections]" caption="Sum of Aantal gridconnections" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of API tijd uncached (s)]" caption="Sum of API tijd uncached (s)" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of API tijd uncached (s)]" caption="Average of API tijd uncached (s)" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Aantal gridconnections 2]" caption="Sum of Aantal gridconnections 2" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of API respons cached]" caption="Sum of API respons cached" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of API respons cached]" caption="Average of API respons cached" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+    <dimension name="Table2" uniqueName="[Table2]" caption="Table2"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Table1" caption="Table1"/>
+    <measureGroup name="Table2" caption="Table2"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7619905F-A7EB-40ED-8026-FC3242CEEC1D}" name="PivotTable3" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="S27:W30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of API respons cached" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="19">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of API respons cached"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="6"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="7"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table2">
+        <x15:activeTabTopLevelEntity name="[Table2]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A57C691-AD6A-43E0-85E5-1B03EB55C790}" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="L27:O37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of API tijd uncached (s)" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="22">
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="19">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of API tijd uncached (s)"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="0"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Benchmark AnyLogic API.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFFFAC10-BA9A-43B8-AD76-E110105D52BD}" name="Table1" displayName="Table1" ref="L9:Q21" totalsRowShown="0">
+  <autoFilter ref="L9:Q21" xr:uid="{AFFFAC10-BA9A-43B8-AD76-E110105D52BD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{01C5CD87-8547-48FD-8D35-030D9920C5AC}" name="Cloud"/>
+    <tableColumn id="2" xr3:uid="{810E99A9-A7CF-4548-B6C1-6FCA61372841}" name="Aantal gridconnections"/>
+    <tableColumn id="3" xr3:uid="{0017E392-5775-410C-BDA7-7C78C42C4DFB}" name="Parallelisatie"/>
+    <tableColumn id="4" xr3:uid="{8F4A7A5D-4F8B-45D7-A8B8-329C29913E5E}" name="API tijd uncached (s)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{AB09BF1B-8059-4C91-A38F-AFB00D053A0C}" name="tijdstap (u)"/>
+    <tableColumn id="6" xr3:uid="{D17D18B1-9867-426B-8C47-D7043C5DE51E}" name="cached"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9322242-48FE-4F6C-A2FB-2594C820BF8B}" name="Table2" displayName="Table2" ref="S9:V15" totalsRowShown="0">
+  <autoFilter ref="S9:V15" xr:uid="{D9322242-48FE-4F6C-A2FB-2594C820BF8B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CFB39EBC-0FF4-42C7-B583-0FA346C293BF}" name="Cloud"/>
+    <tableColumn id="2" xr3:uid="{2B7F1B21-0719-42AA-A01F-4731511616D5}" name="Aantal gridconnections"/>
+    <tableColumn id="3" xr3:uid="{71B9B8A0-74B5-47BD-AC56-46DA0985E133}" name="API respons cached"/>
+    <tableColumn id="4" xr3:uid="{DF36DEEA-ED9E-4C81-9C03-E2EF0BAD12A0}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2040,11 +9747,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB2619A-1C43-4E90-A58D-7DAE9600E658}">
+  <dimension ref="C1:W37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f>5+28+122+20+2+1</f>
+        <v>178</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>5.4</v>
+      </c>
+      <c r="H3">
+        <v>6.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="L3">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <f>5+300+1702+288+2+1+1</f>
+        <v>2299</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="G4">
+        <v>6.2</v>
+      </c>
+      <c r="H4">
+        <v>6.7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="L4">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <f>5+1000+5746+2+1+1</f>
+        <v>6755</v>
+      </c>
+      <c r="E5">
+        <v>22.6</v>
+      </c>
+      <c r="F5">
+        <v>2.5</v>
+      </c>
+      <c r="G5">
+        <v>12.8</v>
+      </c>
+      <c r="H5">
+        <v>12.9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23.64</v>
+      </c>
+      <c r="J5" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L5">
+        <v>7.3650000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>300</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="4">
+        <v>19.27</v>
+      </c>
+      <c r="P10">
+        <v>0.25</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10">
+        <v>27</v>
+      </c>
+      <c r="U10">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>300</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4">
+        <v>14.750999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.25</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>300</v>
+      </c>
+      <c r="U11">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="P12">
+        <v>0.25</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>1000</v>
+      </c>
+      <c r="U12">
+        <v>5.9379999999999997</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="4">
+        <v>10.473000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.25</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>27</v>
+      </c>
+      <c r="U13">
+        <v>0.157</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="4">
+        <v>43.975999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.25</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>300</v>
+      </c>
+      <c r="U14">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="4">
+        <v>30.206</v>
+      </c>
+      <c r="P15">
+        <v>0.25</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <v>1000</v>
+      </c>
+      <c r="U15">
+        <v>0.752</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4">
+        <v>8.85</v>
+      </c>
+      <c r="P16">
+        <v>0.25</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>300</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="P17">
+        <v>0.25</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="P18">
+        <v>0.25</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.25</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="4">
+        <v>20.545999999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.25</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="4">
+        <v>14.848000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.25</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>27</v>
+      </c>
+      <c r="U28">
+        <v>300</v>
+      </c>
+      <c r="V28">
+        <v>1000</v>
+      </c>
+      <c r="W28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L29" s="7">
+        <v>27</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="S29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0.157</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V29" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0.43233333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4">
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10.473000000000001</v>
+      </c>
+      <c r="O30" s="4">
+        <v>7.766</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="5">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="U30" s="5">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="V30" s="5">
+        <v>5.9379999999999997</v>
+      </c>
+      <c r="W30" s="5">
+        <v>3.3610000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="4">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="N31" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="O31" s="4">
+        <v>6.4785000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L32" s="7">
+        <v>300</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="N33" s="4">
+        <v>14.750999999999999</v>
+      </c>
+      <c r="O33" s="4">
+        <v>11.410500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="4">
+        <v>8.85</v>
+      </c>
+      <c r="N34" s="4">
+        <v>19.27</v>
+      </c>
+      <c r="O34" s="4">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="4">
+        <v>14.848000000000001</v>
+      </c>
+      <c r="N36" s="4">
+        <v>30.206</v>
+      </c>
+      <c r="O36" s="4">
+        <v>22.527000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="4">
+        <v>20.545999999999999</v>
+      </c>
+      <c r="N37" s="4">
+        <v>43.975999999999999</v>
+      </c>
+      <c r="O37" s="4">
+        <v>32.261000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="2">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392E5EB-2CAF-4A57-B5FB-21CFD6EA24FB}">
   <dimension ref="C1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
